--- a/Yearly_Power_Stats.xlsx
+++ b/Yearly_Power_Stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,262 +467,102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.98</v>
+        <v>357.07</v>
       </c>
       <c r="D2" t="n">
-        <v>1.424790111940299</v>
+        <v>102.5977595890411</v>
       </c>
       <c r="E2" t="n">
-        <v>45821.25</v>
+        <v>1497927.29</v>
       </c>
       <c r="F2" t="n">
-        <v>9.668628043562364</v>
+        <v>90.91179896154902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>357.07</v>
+        <v>376.94</v>
       </c>
       <c r="D3" t="n">
-        <v>46.06663184931507</v>
+        <v>114.6806102739726</v>
       </c>
       <c r="E3" t="n">
-        <v>1614174.78</v>
+        <v>1674336.91</v>
       </c>
       <c r="F3" t="n">
-        <v>77.13584499039489</v>
+        <v>93.75730031865702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>376.94</v>
+        <v>362.42</v>
       </c>
       <c r="D4" t="n">
-        <v>51.08938070776256</v>
+        <v>119.2225520547945</v>
       </c>
       <c r="E4" t="n">
-        <v>1790171.9</v>
+        <v>1740649.26</v>
       </c>
       <c r="F4" t="n">
-        <v>82.27569400539396</v>
+        <v>97.56030570368884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>362.42</v>
+        <v>365.86</v>
       </c>
       <c r="D5" t="n">
-        <v>53.04299657534246</v>
+        <v>112.5835259562841</v>
       </c>
       <c r="E5" t="n">
-        <v>1858626.6</v>
+        <v>1648222.82</v>
       </c>
       <c r="F5" t="n">
-        <v>85.50869314667322</v>
+        <v>90.89581639501723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>365.86</v>
+        <v>354.18</v>
       </c>
       <c r="D6" t="n">
-        <v>50.01879069899818</v>
+        <v>111.9277267123287</v>
       </c>
       <c r="E6" t="n">
-        <v>1757460.23</v>
+        <v>1634144.81</v>
       </c>
       <c r="F6" t="n">
-        <v>80.16187386599802</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>354.18</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50.05340268264841</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1753871.23</v>
-      </c>
-      <c r="F7" t="n">
-        <v>80.93794308089583</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>372.57</v>
-      </c>
-      <c r="D8" t="n">
-        <v>57.40665239726027</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2011529.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>91.36621187973927</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>401.34</v>
-      </c>
-      <c r="D9" t="n">
-        <v>57.01013099315067</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1997634.99</v>
-      </c>
-      <c r="F9" t="n">
-        <v>90.90033776358479</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>474.4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>69.54442793715847</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2443513.02</v>
-      </c>
-      <c r="F10" t="n">
-        <v>111.8182322304141</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>566.58</v>
-      </c>
-      <c r="D11" t="n">
-        <v>79.26517579908676</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2777451.76</v>
-      </c>
-      <c r="F11" t="n">
-        <v>127.6538447665911</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>485.42</v>
-      </c>
-      <c r="D12" t="n">
-        <v>78.80685159817352</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2761392.08</v>
-      </c>
-      <c r="F12" t="n">
-        <v>123.7423460227511</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>579.76</v>
-      </c>
-      <c r="D13" t="n">
-        <v>82.2347962328767</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2881507.26</v>
-      </c>
-      <c r="F13" t="n">
-        <v>136.3395615255531</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>991.3200000000001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>103.7143391393443</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3644107.02</v>
-      </c>
-      <c r="F14" t="n">
-        <v>186.0666836621626</v>
+        <v>92.87323944121395</v>
       </c>
     </row>
   </sheetData>

--- a/Yearly_Power_Stats.xlsx
+++ b/Yearly_Power_Stats.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
